--- a/DATA_Annual life history.xlsx
+++ b/DATA_Annual life history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lenovo D Drive Folder\PhD (Sinica-THU)\Academic Work\Thesis Research\Projects\Balanophora Project\Balanophora Manuscripts\Annual\Submission Files\Final Submission Files\EcoEvo Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187FF7BE-434F-43A9-8777-291EE6A66AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD61167-B061-411F-A3EC-CCC54C58F59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F1E38439-5389-4D42-97A8-BA489371E9F6}"/>
   </bookViews>
@@ -503,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA83B88-947E-4266-BC57-67E934B8C108}">
-  <dimension ref="A1:M369"/>
+  <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="M341" sqref="M341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5441,258 +5441,258 @@
         <v>32.650938320000002</v>
       </c>
     </row>
+    <row r="291" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M291">
+        <v>5.7882131999999995</v>
+      </c>
+    </row>
+    <row r="292" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M292">
+        <v>27.699905640000004</v>
+      </c>
+    </row>
+    <row r="293" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M293">
+        <v>8.04598938</v>
+      </c>
+    </row>
+    <row r="294" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M294">
+        <v>22.310007720000002</v>
+      </c>
+    </row>
+    <row r="295" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M295">
+        <v>5.6286383999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M296">
+        <v>18.3192624</v>
+      </c>
+    </row>
+    <row r="297" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M297">
+        <v>5.9016299999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M298">
+        <v>10.56266484</v>
+      </c>
+    </row>
+    <row r="299" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M299">
+        <v>6.3019799999999995</v>
+      </c>
+    </row>
+    <row r="300" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M300">
+        <v>24.00216</v>
+      </c>
+    </row>
+    <row r="301" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M301">
+        <v>3.8506730600000001</v>
+      </c>
+    </row>
+    <row r="302" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M302">
+        <v>1.6436329999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M303">
+        <v>2.1674373333333334</v>
+      </c>
+    </row>
+    <row r="304" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M304">
+        <v>3.4395978666666669</v>
+      </c>
+    </row>
+    <row r="305" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M305">
+        <v>17.539380599999998</v>
+      </c>
+    </row>
+    <row r="306" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M306">
+        <v>8.4315280000000019</v>
+      </c>
+    </row>
+    <row r="307" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M307">
+        <v>9.456366433333331</v>
+      </c>
+    </row>
+    <row r="308" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M308">
+        <v>40.299055160000009</v>
+      </c>
+    </row>
+    <row r="309" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M309">
+        <v>29.289350613333333</v>
+      </c>
+    </row>
+    <row r="310" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M310">
+        <v>9.126263466666666</v>
+      </c>
+    </row>
+    <row r="311" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M311">
+        <v>9.7685399999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M312">
+        <v>65.688172000000009</v>
+      </c>
+    </row>
+    <row r="313" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M313">
+        <v>41.155000320000006</v>
+      </c>
+    </row>
+    <row r="314" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M314">
+        <v>4.4252428199999994</v>
+      </c>
+    </row>
+    <row r="315" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M315">
+        <v>8.6338539000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M316">
+        <v>13.956554773333332</v>
+      </c>
+    </row>
     <row r="317" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M317">
-        <v>5.7882131999999995</v>
+        <v>9.2784592666666654</v>
       </c>
     </row>
     <row r="318" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M318">
-        <v>27.699905640000004</v>
+        <v>15.209532000000001</v>
       </c>
     </row>
     <row r="319" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M319">
-        <v>8.04598938</v>
+        <v>10.712198966666667</v>
       </c>
     </row>
     <row r="320" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M320">
-        <v>22.310007720000002</v>
+        <v>11.581965360000002</v>
       </c>
     </row>
     <row r="321" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M321">
-        <v>5.6286383999999998</v>
+        <v>3.7187124666666671</v>
       </c>
     </row>
     <row r="322" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M322">
-        <v>18.3192624</v>
+        <v>91.955911080000007</v>
       </c>
     </row>
     <row r="323" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M323">
-        <v>5.9016299999999999</v>
+        <v>6.6886814666666661</v>
       </c>
     </row>
     <row r="324" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M324">
-        <v>10.56266484</v>
+        <v>7.23142</v>
       </c>
     </row>
     <row r="325" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M325">
-        <v>6.3019799999999995</v>
+        <v>12.541128599999999</v>
       </c>
     </row>
     <row r="326" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M326">
-        <v>24.00216</v>
+        <v>18.869908499999998</v>
       </c>
     </row>
     <row r="327" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M327">
-        <v>3.8506730600000001</v>
+        <v>68.1791968</v>
       </c>
     </row>
     <row r="328" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M328">
-        <v>1.6436329999999997</v>
+        <v>24.316932439999999</v>
       </c>
     </row>
     <row r="329" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M329">
-        <v>2.1674373333333334</v>
+        <v>48.105486613333333</v>
       </c>
     </row>
     <row r="330" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M330">
-        <v>3.4395978666666669</v>
+        <v>59.622623010000005</v>
+      </c>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M331">
+        <v>52.833384613333337</v>
+      </c>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M332">
+        <v>37.977628039999992</v>
       </c>
     </row>
     <row r="333" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M333">
-        <v>17.539380599999998</v>
+        <v>7.5435359999999996</v>
       </c>
     </row>
     <row r="334" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M334">
-        <v>8.4315280000000019</v>
+        <v>4.0721246999999998</v>
       </c>
     </row>
     <row r="335" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M335">
-        <v>9.456366433333331</v>
+        <v>82.276088639999983</v>
       </c>
     </row>
     <row r="336" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M336">
-        <v>40.299055160000009</v>
+        <v>7.6186866666666653</v>
       </c>
     </row>
     <row r="337" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M337">
-        <v>29.289350613333333</v>
+        <v>10.1630182</v>
       </c>
     </row>
     <row r="338" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M338">
-        <v>9.126263466666666</v>
+        <v>23.452843166666671</v>
       </c>
     </row>
     <row r="339" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M339">
-        <v>9.7685399999999998</v>
+        <v>9.4466376666666676</v>
       </c>
     </row>
     <row r="340" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M340">
-        <v>65.688172000000009</v>
+        <v>13.690021106666663</v>
       </c>
     </row>
     <row r="341" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M341">
-        <v>41.155000320000006</v>
-      </c>
-    </row>
-    <row r="342" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M342">
-        <v>4.4252428199999994</v>
-      </c>
-    </row>
-    <row r="343" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M343">
-        <v>8.6338539000000001</v>
-      </c>
-    </row>
-    <row r="344" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M344">
-        <v>13.956554773333332</v>
-      </c>
-    </row>
-    <row r="345" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M345">
-        <v>9.2784592666666654</v>
-      </c>
-    </row>
-    <row r="346" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M346">
-        <v>15.209532000000001</v>
-      </c>
-    </row>
-    <row r="347" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M347">
-        <v>10.712198966666667</v>
-      </c>
-    </row>
-    <row r="348" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M348">
-        <v>11.581965360000002</v>
-      </c>
-    </row>
-    <row r="349" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M349">
-        <v>3.7187124666666671</v>
-      </c>
-    </row>
-    <row r="350" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M350">
-        <v>91.955911080000007</v>
-      </c>
-    </row>
-    <row r="351" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M351">
-        <v>6.6886814666666661</v>
-      </c>
-    </row>
-    <row r="352" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M352">
-        <v>7.23142</v>
-      </c>
-    </row>
-    <row r="353" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M353">
-        <v>12.541128599999999</v>
-      </c>
-    </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M354">
-        <v>18.869908499999998</v>
-      </c>
-    </row>
-    <row r="355" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M355">
-        <v>68.1791968</v>
-      </c>
-    </row>
-    <row r="356" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M356">
-        <v>24.316932439999999</v>
-      </c>
-    </row>
-    <row r="357" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M357">
-        <v>48.105486613333333</v>
-      </c>
-    </row>
-    <row r="358" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M358">
-        <v>59.622623010000005</v>
-      </c>
-    </row>
-    <row r="359" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M359">
-        <v>52.833384613333337</v>
-      </c>
-    </row>
-    <row r="360" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M360">
-        <v>37.977628039999992</v>
-      </c>
-    </row>
-    <row r="361" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M361">
-        <v>7.5435359999999996</v>
-      </c>
-    </row>
-    <row r="362" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M362">
-        <v>4.0721246999999998</v>
-      </c>
-    </row>
-    <row r="363" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M363">
-        <v>82.276088639999983</v>
-      </c>
-    </row>
-    <row r="364" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M364">
-        <v>7.6186866666666653</v>
-      </c>
-    </row>
-    <row r="365" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M365">
-        <v>10.1630182</v>
-      </c>
-    </row>
-    <row r="366" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M366">
-        <v>23.452843166666671</v>
-      </c>
-    </row>
-    <row r="367" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M367">
-        <v>9.4466376666666676</v>
-      </c>
-    </row>
-    <row r="368" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M368">
-        <v>13.690021106666663</v>
-      </c>
-    </row>
-    <row r="369" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M369">
         <v>28.728475439999997</v>
       </c>
     </row>
